--- a/biology/Histoire de la zoologie et de la botanique/Peter_Cameron_(entomologiste)/Peter_Cameron_(entomologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Peter_Cameron_(entomologiste)/Peter_Cameron_(entomologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Cameron (entomologiste) (1847 - 1er décembre 1912 à New Mills, Derbyshire) était un entomologiste amateur anglais spécialisé dans les hyménoptères.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un artiste Cameron a travaillé dans l'industrie de la teinture et dans l'impression calicot[1],[2]. Il a décrit de nombreuses nouvelles espèces; sa collection, y compris le matériel des holotype[1], est maintenant au Natural History Museum. Il souffrait d'une mauvaise santé et du manque d'emploi[1]. Dernièrement, il a vécu à New Mills et a été soutenu par des bourses de la Royal Society.
-Il a prêté des spécimens à Jean-Jacques Kieffer[1], un enseignant et prêtre catholique à Bitche, en Lorraine, qui a également nommé des espèces d'après Cameron.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un artiste Cameron a travaillé dans l'industrie de la teinture et dans l'impression calicot,. Il a décrit de nombreuses nouvelles espèces; sa collection, y compris le matériel des holotype, est maintenant au Natural History Museum. Il souffrait d'une mauvaise santé et du manque d'emploi. Dernièrement, il a vécu à New Mills et a été soutenu par des bourses de la Royal Society.
+Il a prêté des spécimens à Jean-Jacques Kieffer, un enseignant et prêtre catholique à Bitche, en Lorraine, qui a également nommé des espèces d'après Cameron.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A Monograph of the British Phytophagous Hymenoptera Ray Society (1882–1893)
 Hymenoptera volumes of the Biologia Centrali-Americana, volumes 1-2 (1883–1900) and (1888–1900)
